--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -702,7 +702,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>59351.3105</v>
+        <v>91697.31049999999</v>
       </c>
       <c r="B10" t="n">
         <v>65000</v>
@@ -723,7 +723,7 @@
         <v>20000</v>
       </c>
       <c r="H10" t="n">
-        <v>-14245.379</v>
+        <v>18100.62099999998</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99192.12700000001</v>
+        <v>96192.12700000001</v>
       </c>
       <c r="B11" t="n">
         <v>65000</v>
@@ -752,7 +752,7 @@
         <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>20249.25400000002</v>
+        <v>17249.25400000002</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99767.6905</v>
+        <v>101740.6905</v>
       </c>
       <c r="B12" t="n">
         <v>65000</v>
@@ -781,7 +781,7 @@
         <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>18998.38099999999</v>
+        <v>20971.38099999999</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100144.771</v>
+        <v>104097.771</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -810,7 +810,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>19935.54199999999</v>
+        <v>23888.54199999999</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>101117.205</v>
+        <v>99612.205</v>
       </c>
       <c r="B14" t="n">
         <v>65000</v>
@@ -839,7 +839,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>20957.41</v>
+        <v>19452.41</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108724.5555</v>
+        <v>105912.5555</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>28275.111</v>
+        <v>25463.111</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103763.567</v>
+        <v>103048.567</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>23175.13399999999</v>
+        <v>22460.13399999999</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>101211.3415</v>
+        <v>103143.3415</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>20190.68299999999</v>
+        <v>22122.68299999999</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,7 +470,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73177.4875</v>
+        <v>67469.4369706</v>
       </c>
       <c r="B2" t="n">
         <v>65000</v>
@@ -491,7 +491,7 @@
         <v>20000</v>
       </c>
       <c r="H2" t="n">
-        <v>2732.975000000006</v>
+        <v>-2812.1260588</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69811.6565</v>
+        <v>64762.4864266</v>
       </c>
       <c r="B3" t="n">
         <v>45000</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>19424.31299999999</v>
+        <v>14542.9728532</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,28 +528,28 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64462.7775</v>
+        <v>62133.5902844</v>
       </c>
       <c r="B4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="C4" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E4" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F4" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>36605.55499999999</v>
+        <v>11918.1805688</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,28 +557,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64419.8455</v>
+        <v>59918.038846</v>
       </c>
       <c r="B5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="C5" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E5" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F5" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>36630.69100000001</v>
+        <v>9714.077691999999</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,28 +586,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63786.1715</v>
+        <v>61112.8082086</v>
       </c>
       <c r="B6" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="C6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D6" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E6" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F6" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>35924.34299999999</v>
+        <v>10915.6164172</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,28 +615,28 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65583.3985</v>
+        <v>63543.34069</v>
       </c>
       <c r="B7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="C7" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E7" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F7" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>37640.797</v>
+        <v>13202.68137999999</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63552.469</v>
+        <v>63281.5150334</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>35235.93799999999</v>
+        <v>35091.0300668</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,28 +673,28 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>76403.3885</v>
+        <v>76932.727397</v>
       </c>
       <c r="B9" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="C9" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D9" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E9" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F9" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>46868.777</v>
+        <v>24689.45479399999</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91697.31049999999</v>
+        <v>71810.65454839999</v>
       </c>
       <c r="B10" t="n">
         <v>65000</v>
@@ -723,7 +723,7 @@
         <v>20000</v>
       </c>
       <c r="H10" t="n">
-        <v>18100.62099999998</v>
+        <v>-1999.690903200004</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96192.12700000001</v>
+        <v>98935.182</v>
       </c>
       <c r="B11" t="n">
         <v>65000</v>
@@ -752,7 +752,7 @@
         <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>17249.25400000002</v>
+        <v>20089.364</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101740.6905</v>
+        <v>105787.3065</v>
       </c>
       <c r="B12" t="n">
         <v>65000</v>
@@ -781,7 +781,7 @@
         <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>20971.38099999999</v>
+        <v>25361.61300000001</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104097.771</v>
+        <v>101388.53031</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -810,7 +810,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>23888.54199999999</v>
+        <v>20453.06062</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99612.205</v>
+        <v>102089.65541</v>
       </c>
       <c r="B14" t="n">
         <v>65000</v>
@@ -839,7 +839,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>19452.41</v>
+        <v>21109.31082000001</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>105912.5555</v>
+        <v>106476.81932</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>25463.111</v>
+        <v>25470.63863999999</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103048.567</v>
+        <v>105840.32945</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>22460.13399999999</v>
+        <v>24710.65890000001</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>103143.3415</v>
+        <v>87636.42429</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>22122.68299999999</v>
+        <v>6376.848579999991</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>93839.61749999999</v>
+        <v>2351.925520000001</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -955,7 +955,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>12577.23499999999</v>
+        <v>-79098.14895999999</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -984,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>7720.782000000007</v>
+        <v>7325.189740000002</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -1013,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>9137.16399999999</v>
+        <v>8706.029729999995</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1042,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>8722.924999999988</v>
+        <v>8358.01135999999</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1071,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>9072.655999999988</v>
+        <v>8863.180929999988</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1100,7 +1100,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>10193.016</v>
+        <v>10046.00403</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1129,7 +1129,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>9727.412000000011</v>
+        <v>9779.810710000005</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1158,7 +1158,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>-18422.943</v>
+        <v>-18611.92585</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,7 +470,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67469.4369706</v>
+        <v>73347.2945</v>
       </c>
       <c r="B2" t="n">
         <v>65000</v>
@@ -491,7 +491,7 @@
         <v>20000</v>
       </c>
       <c r="H2" t="n">
-        <v>-2812.1260588</v>
+        <v>2723.589000000007</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64762.4864266</v>
+        <v>70244.77099999999</v>
       </c>
       <c r="B3" t="n">
         <v>45000</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>14542.9728532</v>
+        <v>19786.54199999999</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62133.5902844</v>
+        <v>67129.0255</v>
       </c>
       <c r="B4" t="n">
         <v>45000</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>11918.1805688</v>
+        <v>16621.05100000001</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59918.038846</v>
+        <v>64595.502</v>
       </c>
       <c r="B5" t="n">
         <v>45000</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9714.077691999999</v>
+        <v>14120.004</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61112.8082086</v>
+        <v>65374.48</v>
       </c>
       <c r="B6" t="n">
         <v>45000</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>10915.6164172</v>
+        <v>14904.96000000001</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63543.34069</v>
+        <v>67982.29700000001</v>
       </c>
       <c r="B7" t="n">
         <v>45000</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13202.68137999999</v>
+        <v>17406.594</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63281.5150334</v>
+        <v>67367.1265</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>35091.0300668</v>
+        <v>38725.253</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>76932.727397</v>
+        <v>79207.3645</v>
       </c>
       <c r="B9" t="n">
         <v>45000</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>24689.45479399999</v>
+        <v>27043.72899999999</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>71810.65454839999</v>
+        <v>95174.5395</v>
       </c>
       <c r="B10" t="n">
         <v>65000</v>
@@ -723,7 +723,7 @@
         <v>20000</v>
       </c>
       <c r="H10" t="n">
-        <v>-1999.690903200004</v>
+        <v>21527.079</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98935.182</v>
+        <v>81952.2095</v>
       </c>
       <c r="B11" t="n">
         <v>65000</v>
@@ -752,7 +752,7 @@
         <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>20089.364</v>
+        <v>4516.418999999994</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105787.3065</v>
+        <v>81626.978</v>
       </c>
       <c r="B12" t="n">
         <v>65000</v>
@@ -781,7 +781,7 @@
         <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>25361.61300000001</v>
+        <v>1155.956000000006</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101388.53031</v>
+        <v>80925.1525</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -810,7 +810,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>20453.06062</v>
+        <v>-459.695000000007</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>102089.65541</v>
+        <v>80952.772</v>
       </c>
       <c r="B14" t="n">
         <v>65000</v>
@@ -839,7 +839,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>21109.31082000001</v>
+        <v>-109.4560000000056</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106476.81932</v>
+        <v>107586.796</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>25470.63863999999</v>
+        <v>26401.592</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105840.32945</v>
+        <v>106447.456</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>24710.65890000001</v>
+        <v>24921.91200000001</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>87636.42429</v>
+        <v>65630.38250000001</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>6376.848579999991</v>
+        <v>-15832.23499999999</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2351.925520000001</v>
+        <v>40052.2725</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -955,7 +955,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>-79098.14895999999</v>
+        <v>-41709.455</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -984,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>7325.189740000002</v>
+        <v>7051.228499999997</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -1013,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>8706.029729999995</v>
+        <v>8134.193499999994</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1042,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>8358.01135999999</v>
+        <v>8380.1875</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1071,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>8863.180929999988</v>
+        <v>8944.044999999998</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1100,7 +1100,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>10046.00403</v>
+        <v>10285.514</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1129,7 +1129,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>9779.810710000005</v>
+        <v>10044.24250000001</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1158,7 +1158,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>-18611.92585</v>
+        <v>-18483.906</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,7 +470,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73347.2945</v>
+        <v>76120.08100000001</v>
       </c>
       <c r="B2" t="n">
         <v>65000</v>
@@ -491,7 +491,7 @@
         <v>20000</v>
       </c>
       <c r="H2" t="n">
-        <v>2723.589000000007</v>
+        <v>5538.162000000011</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70244.77099999999</v>
+        <v>71791.0595</v>
       </c>
       <c r="B3" t="n">
         <v>45000</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>19786.54199999999</v>
+        <v>21394.11900000001</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67129.0255</v>
+        <v>68399.94749999999</v>
       </c>
       <c r="B4" t="n">
         <v>45000</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16621.05100000001</v>
+        <v>17904.895</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64595.502</v>
+        <v>66005.4555</v>
       </c>
       <c r="B5" t="n">
         <v>45000</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>14120.004</v>
+        <v>15570.91099999999</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65374.48</v>
+        <v>66108.52100000001</v>
       </c>
       <c r="B6" t="n">
         <v>45000</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14904.96000000001</v>
+        <v>15680.04200000001</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67982.29700000001</v>
+        <v>68556.58900000001</v>
       </c>
       <c r="B7" t="n">
         <v>45000</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17406.594</v>
+        <v>18035.17800000001</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67367.1265</v>
+        <v>67236.3705</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>38725.253</v>
+        <v>38887.741</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79207.3645</v>
+        <v>78468.8045</v>
       </c>
       <c r="B9" t="n">
         <v>45000</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>27043.72899999999</v>
+        <v>26059.609</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95174.5395</v>
+        <v>94798.8805</v>
       </c>
       <c r="B10" t="n">
         <v>65000</v>
@@ -723,7 +723,7 @@
         <v>20000</v>
       </c>
       <c r="H10" t="n">
-        <v>21527.079</v>
+        <v>21051.761</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81952.2095</v>
+        <v>104772.7525</v>
       </c>
       <c r="B11" t="n">
         <v>65000</v>
@@ -752,7 +752,7 @@
         <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>4516.418999999994</v>
+        <v>25913.505</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>81626.978</v>
+        <v>81750.917</v>
       </c>
       <c r="B12" t="n">
         <v>65000</v>
@@ -781,7 +781,7 @@
         <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>1155.956000000006</v>
+        <v>1120.834000000003</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80925.1525</v>
+        <v>81997.829</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -810,7 +810,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>-459.695000000007</v>
+        <v>1489.657999999996</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>80952.772</v>
+        <v>105624.2205</v>
       </c>
       <c r="B14" t="n">
         <v>65000</v>
@@ -839,7 +839,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>-109.4560000000056</v>
+        <v>25119.44099999999</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>107586.796</v>
+        <v>95972.76149999999</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>26401.592</v>
+        <v>15232.52299999999</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106447.456</v>
+        <v>83571.656</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>24921.91200000001</v>
+        <v>2750.312000000005</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>65630.38250000001</v>
+        <v>82803.65850000001</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>-15832.23499999999</v>
+        <v>1841.31700000001</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>40052.2725</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -953,9 +953,6 @@
       </c>
       <c r="G18" t="n">
         <v>20000</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-41709.455</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -984,7 +981,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>7051.228499999997</v>
+        <v>7311.611000000004</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -1013,7 +1010,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>8134.193499999994</v>
+        <v>8470.987999999998</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1042,7 +1039,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>8380.1875</v>
+        <v>8379.186499999996</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1071,7 +1068,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>8944.044999999998</v>
+        <v>8854.675999999992</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1100,7 +1097,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>10285.514</v>
+        <v>10127.6185</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1129,7 +1126,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>10044.24250000001</v>
+        <v>10090.37250000001</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1158,7 +1155,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>-18483.906</v>
+        <v>-18493.4365</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,7 +470,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76120.08100000001</v>
+        <v>71113.81820777048</v>
       </c>
       <c r="B2" t="n">
         <v>65000</v>
@@ -491,7 +491,7 @@
         <v>20000</v>
       </c>
       <c r="H2" t="n">
-        <v>5538.162000000011</v>
+        <v>710.6364155409683</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,10 +499,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71791.0595</v>
+        <v>67545.03614904819</v>
       </c>
       <c r="B3" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="C3" t="n">
         <v>25000</v>
@@ -517,10 +517,10 @@
         <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H3" t="n">
-        <v>21394.11900000001</v>
+        <v>-2733.927701903616</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68399.94749999999</v>
+        <v>64912.93507234415</v>
       </c>
       <c r="B4" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="C4" t="n">
         <v>25000</v>
@@ -546,10 +546,10 @@
         <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H4" t="n">
-        <v>17904.895</v>
+        <v>-5271.129855311694</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66005.4555</v>
+        <v>62673.45009204476</v>
       </c>
       <c r="B5" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="C5" t="n">
         <v>25000</v>
@@ -575,10 +575,10 @@
         <v>10000</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H5" t="n">
-        <v>15570.91099999999</v>
+        <v>7536.900184089522</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,13 +586,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66108.52100000001</v>
+        <v>65076.2280662639</v>
       </c>
       <c r="B6" t="n">
-        <v>45000</v>
+        <v>32500</v>
       </c>
       <c r="C6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D6" t="n">
         <v>20000</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>15680.04200000001</v>
+        <v>27446.4561325278</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,28 +615,28 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68556.58900000001</v>
+        <v>59771.86150775545</v>
       </c>
       <c r="B7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="C7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18035.17800000001</v>
+        <v>32128.7230155109</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67236.3705</v>
+        <v>57711.95956649978</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>38887.741</v>
+        <v>29393.91913299956</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,28 +673,28 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78468.8045</v>
+        <v>62446.29786159514</v>
       </c>
       <c r="B9" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="C9" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D9" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E9" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>26059.609</v>
+        <v>33446.59572319029</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,28 +702,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94798.8805</v>
+        <v>65775.31946340523</v>
       </c>
       <c r="B10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
       <c r="C10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E10" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>21051.761</v>
+        <v>35373.63892681048</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104772.7525</v>
+        <v>71462.30980939096</v>
       </c>
       <c r="B11" t="n">
-        <v>65000</v>
+        <v>32500</v>
       </c>
       <c r="C11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
@@ -749,10 +749,10 @@
         <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>25913.505</v>
+        <v>25447.61961878194</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>81750.917</v>
+        <v>74113.08355009009</v>
       </c>
       <c r="B12" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="C12" t="n">
         <v>25000</v>
@@ -778,10 +778,10 @@
         <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1120.834000000003</v>
+        <v>13479.16710018017</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>81997.829</v>
+        <v>76043.90358977004</v>
       </c>
       <c r="B13" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="C13" t="n">
         <v>25000</v>
@@ -807,10 +807,10 @@
         <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H13" t="n">
-        <v>1489.657999999996</v>
+        <v>10476.80717954008</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105624.2205</v>
+        <v>77831.44660727248</v>
       </c>
       <c r="B14" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="C14" t="n">
         <v>25000</v>
@@ -836,10 +836,10 @@
         <v>10000</v>
       </c>
       <c r="G14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H14" t="n">
-        <v>25119.44099999999</v>
+        <v>7064.893214544958</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>95972.76149999999</v>
+        <v>82872.27103645413</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>15232.52299999999</v>
+        <v>1959.542072908254</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83571.656</v>
+        <v>83944.14432565661</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>2750.312000000005</v>
+        <v>2807.288651313225</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>82803.65850000001</v>
+        <v>78618.92133665539</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>1841.31700000001</v>
+        <v>-3025.15732668923</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>80129.02516075459</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -953,6 +953,9 @@
       </c>
       <c r="G18" t="n">
         <v>20000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-1565.949678490811</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -960,7 +963,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>88583.391</v>
+        <v>79144.3965218529</v>
       </c>
       <c r="B19" t="n">
         <v>65000</v>
@@ -981,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>7311.611000000004</v>
+        <v>-2248.206956294191</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -989,7 +992,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>89024.58199999999</v>
+        <v>80314.30964363975</v>
       </c>
       <c r="B20" t="n">
         <v>65000</v>
@@ -1010,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>8470.987999999998</v>
+        <v>-363.3807127205073</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1018,7 +1021,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>87063.96249999999</v>
+        <v>80761.9859478088</v>
       </c>
       <c r="B21" t="n">
         <v>65000</v>
@@ -1039,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>8379.186499999996</v>
+        <v>1618.971895617608</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1047,7 +1050,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>85910.32799999999</v>
+        <v>78738.71857656092</v>
       </c>
       <c r="B22" t="n">
         <v>65000</v>
@@ -1068,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>8854.675999999992</v>
+        <v>1405.437153121835</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1076,7 +1079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>84684.008</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>65000</v>
@@ -1095,9 +1098,6 @@
       </c>
       <c r="G23" t="n">
         <v>20000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10127.6185</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>81619.20600000001</v>
+        <v>79174.12359352758</v>
       </c>
       <c r="B24" t="n">
         <v>65000</v>
@@ -1126,7 +1126,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>10090.37250000001</v>
+        <v>7930.247187055153</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>52348.0285</v>
+        <v>69812.7623244882</v>
       </c>
       <c r="B25" t="n">
         <v>65000</v>
@@ -1155,7 +1155,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>-18493.4365</v>
+        <v>-524.4753510236042</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,7 +470,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71113.81820777048</v>
+        <v>69119.274</v>
       </c>
       <c r="B2" t="n">
         <v>65000</v>
@@ -491,7 +491,7 @@
         <v>20000</v>
       </c>
       <c r="H2" t="n">
-        <v>710.6364155409683</v>
+        <v>-1570.451999999997</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,10 +499,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67545.03614904819</v>
+        <v>66340.0365</v>
       </c>
       <c r="B3" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="C3" t="n">
         <v>25000</v>
@@ -517,10 +517,10 @@
         <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2733.927701903616</v>
+        <v>15808.073</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64912.93507234415</v>
+        <v>63208.0625</v>
       </c>
       <c r="B4" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="C4" t="n">
         <v>25000</v>
@@ -546,10 +546,10 @@
         <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-5271.129855311694</v>
+        <v>12625.125</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>62673.45009204476</v>
+        <v>60943.438</v>
       </c>
       <c r="B5" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="C5" t="n">
         <v>25000</v>
@@ -575,10 +575,10 @@
         <v>10000</v>
       </c>
       <c r="G5" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7536.900184089522</v>
+        <v>10424.876</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,13 +586,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65076.2280662639</v>
+        <v>61895.6125</v>
       </c>
       <c r="B6" t="n">
-        <v>32500</v>
+        <v>45000</v>
       </c>
       <c r="C6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D6" t="n">
         <v>20000</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>27446.4561325278</v>
+        <v>11422.22500000001</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,28 +615,28 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59771.86150775545</v>
+        <v>64347.948</v>
       </c>
       <c r="B7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="C7" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E7" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F7" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>32128.7230155109</v>
+        <v>13758.89599999999</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>57711.95956649978</v>
+        <v>63985.828</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>29393.91913299956</v>
+        <v>35279.656</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,28 +673,28 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62446.29786159514</v>
+        <v>77807.33349999999</v>
       </c>
       <c r="B9" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="C9" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D9" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E9" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F9" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>33446.59572319029</v>
+        <v>25563.66699999999</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,28 +702,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65775.31946340523</v>
+        <v>93327.5255</v>
       </c>
       <c r="B10" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
       <c r="C10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H10" t="n">
-        <v>35373.63892681048</v>
+        <v>19442.05100000001</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71462.30980939096</v>
+        <v>99657.8165</v>
       </c>
       <c r="B11" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
       <c r="C11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
@@ -749,10 +749,10 @@
         <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>25447.61961878194</v>
+        <v>20890.633</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>74113.08355009009</v>
+        <v>101594.4575</v>
       </c>
       <c r="B12" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="C12" t="n">
         <v>25000</v>
@@ -778,10 +778,10 @@
         <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>13479.16710018017</v>
+        <v>20199.91500000001</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>76043.90358977004</v>
+        <v>101544.0265</v>
       </c>
       <c r="B13" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="C13" t="n">
         <v>25000</v>
@@ -807,10 +807,10 @@
         <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>10476.80717954008</v>
+        <v>19942.05300000001</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>77831.44660727248</v>
+        <v>101650.4226666667</v>
       </c>
       <c r="B14" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="C14" t="n">
         <v>25000</v>
@@ -836,10 +836,10 @@
         <v>10000</v>
       </c>
       <c r="G14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>7064.893214544958</v>
+        <v>20513.84533333336</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>82872.27103645413</v>
+        <v>106950.8875</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>1959.542072908254</v>
+        <v>25769.77499999999</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83944.14432565661</v>
+        <v>108691.349</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>2807.288651313225</v>
+        <v>27212.698</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>78618.92133665539</v>
+        <v>106816.9465</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>-3025.15732668923</v>
+        <v>25190.89300000001</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80129.02516075459</v>
+        <v>102896.076</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -955,7 +955,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>-1565.949678490811</v>
+        <v>21074.152</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -984,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>-2248.206956294191</v>
+        <v>-2568.834978147097</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -1013,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>-363.3807127205073</v>
+        <v>-949.3223563602514</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1042,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>1618.971895617608</v>
+        <v>1781.476281142139</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>78738.71857656092</v>
+        <v>82236.71857656092</v>
       </c>
       <c r="B22" t="n">
         <v>65000</v>
@@ -1071,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>1405.437153121835</v>
+        <v>4958.125909894254</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>60893.79318067842</v>
       </c>
       <c r="B23" t="n">
         <v>65000</v>
@@ -1098,6 +1098,9 @@
       </c>
       <c r="G23" t="n">
         <v>20000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-13802.69548598825</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>79174.12359352758</v>
+        <v>41527.12359352758</v>
       </c>
       <c r="B24" t="n">
         <v>65000</v>
@@ -1126,7 +1129,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>7930.247187055153</v>
+        <v>-30107.89407313908</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1155,7 +1158,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>-524.4753510236042</v>
+        <v>-1227.656675511804</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,7 +470,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69119.274</v>
+        <v>73952.35249999999</v>
       </c>
       <c r="B2" t="n">
         <v>65000</v>
@@ -491,7 +491,7 @@
         <v>20000</v>
       </c>
       <c r="H2" t="n">
-        <v>-1570.451999999997</v>
+        <v>3584.704999999987</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66340.0365</v>
+        <v>69832.38650000001</v>
       </c>
       <c r="B3" t="n">
         <v>45000</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15808.073</v>
+        <v>19593.77300000001</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>63208.0625</v>
+        <v>66640.4185</v>
       </c>
       <c r="B4" t="n">
         <v>45000</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12625.125</v>
+        <v>16445.837</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60943.438</v>
+        <v>60308.0195</v>
       </c>
       <c r="B5" t="n">
         <v>45000</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>10424.876</v>
+        <v>10133.039</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61895.6125</v>
+        <v>44461.786</v>
       </c>
       <c r="B6" t="n">
         <v>45000</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>11422.22500000001</v>
+        <v>-5766.428</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64347.948</v>
+        <v>42310.7695</v>
       </c>
       <c r="B7" t="n">
         <v>45000</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13758.89599999999</v>
+        <v>-8154.460999999996</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63985.828</v>
+        <v>42072.977</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>35279.656</v>
+        <v>13094.954</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77807.33349999999</v>
+        <v>54533.6195</v>
       </c>
       <c r="B9" t="n">
         <v>45000</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>25563.66699999999</v>
+        <v>2246.239000000001</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93327.5255</v>
+        <v>68659.1575</v>
       </c>
       <c r="B10" t="n">
         <v>65000</v>
@@ -723,7 +723,7 @@
         <v>20000</v>
       </c>
       <c r="H10" t="n">
-        <v>19442.05100000001</v>
+        <v>-5358.684999999998</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99657.8165</v>
+        <v>70229.433</v>
       </c>
       <c r="B11" t="n">
         <v>65000</v>
@@ -752,7 +752,7 @@
         <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>20890.633</v>
+        <v>-9243.133999999991</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101594.4575</v>
+        <v>56203.2535</v>
       </c>
       <c r="B12" t="n">
         <v>65000</v>
@@ -781,7 +781,7 @@
         <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>20199.91500000001</v>
+        <v>-25154.493</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101544.0265</v>
+        <v>57456.1745</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -810,7 +810,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>19942.05300000001</v>
+        <v>-24102.651</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -839,7 +839,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>20513.84533333336</v>
+        <v>19916.97616666669</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>25769.77499999999</v>
+        <v>24983.848</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>27212.698</v>
+        <v>27002.1885</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>25190.89300000001</v>
+        <v>25414.26300000001</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -955,7 +955,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>21074.152</v>
+        <v>21491.084</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -984,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>-2568.834978147097</v>
+        <v>-2338.274978147092</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -1013,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>-949.3223563602514</v>
+        <v>-1032.506356360253</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1042,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>1781.476281142139</v>
+        <v>1659.811947808805</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1071,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>4958.125909894254</v>
+        <v>4819.616576560918</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1100,7 +1100,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>-13802.69548598825</v>
+        <v>-13851.99381932158</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1129,7 +1129,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>-30107.89407313908</v>
+        <v>-30212.53590647242</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1158,7 +1158,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>-1227.656675511804</v>
+        <v>-1136.286175511807</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60308.0195</v>
+        <v>63987.0195</v>
       </c>
       <c r="B5" t="n">
         <v>45000</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>10133.039</v>
+        <v>13812.039</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>44461.786</v>
+        <v>64036.786</v>
       </c>
       <c r="B6" t="n">
         <v>45000</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-5766.428</v>
+        <v>13808.572</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54533.6195</v>
+        <v>71318.6195</v>
       </c>
       <c r="B9" t="n">
         <v>45000</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2246.239000000001</v>
+        <v>19031.239</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68659.1575</v>
+        <v>88671.1575</v>
       </c>
       <c r="B10" t="n">
         <v>65000</v>
@@ -723,7 +723,7 @@
         <v>20000</v>
       </c>
       <c r="H10" t="n">
-        <v>-5358.684999999998</v>
+        <v>14653.315</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>70229.433</v>
+        <v>92411.433</v>
       </c>
       <c r="B11" t="n">
         <v>65000</v>
@@ -752,7 +752,7 @@
         <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>-9243.133999999991</v>
+        <v>12938.86600000001</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56203.2535</v>
+        <v>100531.2535</v>
       </c>
       <c r="B12" t="n">
         <v>65000</v>
@@ -781,7 +781,7 @@
         <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>-25154.493</v>
+        <v>19173.50700000001</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>57456.1745</v>
+        <v>102100.1745</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -810,7 +810,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>-24102.651</v>
+        <v>20541.34899999999</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>101650.4226666667</v>
+        <v>107342.5535</v>
       </c>
       <c r="B14" t="n">
         <v>65000</v>
@@ -839,7 +839,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>19916.97616666669</v>
+        <v>25609.10699999999</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106950.8875</v>
+        <v>106642.9605</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>24983.848</v>
+        <v>24675.921</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108691.349</v>
+        <v>106784.8395</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>27002.1885</v>
+        <v>25095.679</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106816.9465</v>
+        <v>90780.3165</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>25414.26300000001</v>
+        <v>9377.633000000002</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>102896.076</v>
+        <v>85919.008</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -955,7 +955,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>21491.084</v>
+        <v>4514.016000000003</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,10 +470,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73952.35249999999</v>
+        <v>69920.2865</v>
       </c>
       <c r="B2" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="C2" t="n">
         <v>25000</v>
@@ -488,10 +488,10 @@
         <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="H2" t="n">
-        <v>3584.704999999987</v>
+        <v>4365.573000000004</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,10 +499,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69832.38650000001</v>
+        <v>66915.6565</v>
       </c>
       <c r="B3" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="C3" t="n">
         <v>25000</v>
@@ -517,10 +517,10 @@
         <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H3" t="n">
-        <v>19593.77300000001</v>
+        <v>6556.312999999995</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66640.4185</v>
+        <v>64226.2495</v>
       </c>
       <c r="B4" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="C4" t="n">
         <v>25000</v>
@@ -546,10 +546,10 @@
         <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H4" t="n">
-        <v>16445.837</v>
+        <v>8914.498999999996</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>63987.0195</v>
+        <v>61875.048</v>
       </c>
       <c r="B5" t="n">
         <v>45000</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13812.039</v>
+        <v>11575.09600000001</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64036.786</v>
+        <v>60259.8485</v>
       </c>
       <c r="B6" t="n">
         <v>45000</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>13808.572</v>
+        <v>9966.697</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,28 +615,28 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42310.7695</v>
+        <v>58139.24</v>
       </c>
       <c r="B7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="C7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-8154.460999999996</v>
+        <v>30314.48</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>42072.977</v>
+        <v>56572.5245</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>13094.954</v>
+        <v>27874.049</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,28 +673,28 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71318.6195</v>
+        <v>60752.6295</v>
       </c>
       <c r="B9" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="C9" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D9" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E9" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>19031.239</v>
+        <v>31620.25900000001</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,28 +702,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88671.1575</v>
+        <v>64931.071</v>
       </c>
       <c r="B10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
       <c r="C10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E10" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14653.315</v>
+        <v>34445.14200000001</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,28 +731,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>92411.433</v>
+        <v>70147.9385</v>
       </c>
       <c r="B11" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
       <c r="C11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D11" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E11" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G11" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>12938.86600000001</v>
+        <v>34485.87700000001</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100531.2535</v>
+        <v>69263.08900000001</v>
       </c>
       <c r="B12" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="C12" t="n">
         <v>25000</v>
@@ -778,10 +778,10 @@
         <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>19173.50700000001</v>
+        <v>8763.178000000007</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102100.1745</v>
+        <v>72050.28200000001</v>
       </c>
       <c r="B13" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="C13" t="n">
         <v>25000</v>
@@ -807,10 +807,10 @@
         <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20541.34899999999</v>
+        <v>11071.56400000001</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>107342.5535</v>
+        <v>68358.14999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="C14" t="n">
         <v>25000</v>
@@ -836,10 +836,10 @@
         <v>10000</v>
       </c>
       <c r="G14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H14" t="n">
-        <v>25609.10699999999</v>
+        <v>-2591.700000000004</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106642.9605</v>
+        <v>72446.51549999999</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>24675.921</v>
+        <v>-8665.969000000005</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106784.8395</v>
+        <v>69319.5355</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>25095.679</v>
+        <v>-12381.929</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>90780.3165</v>
+        <v>69034.26949999999</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>9377.633000000002</v>
+        <v>-12485.46100000001</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85919.008</v>
+        <v>68570.463</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -955,7 +955,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>4514.016000000003</v>
+        <v>-13004.07399999999</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>79144.3965218529</v>
+        <v>72815.8455</v>
       </c>
       <c r="B19" t="n">
         <v>65000</v>
@@ -984,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>-2338.274978147092</v>
+        <v>-8372.309000000008</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80314.30964363975</v>
+        <v>75500.6725</v>
       </c>
       <c r="B20" t="n">
         <v>65000</v>
@@ -1013,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>-1032.506356360253</v>
+        <v>-5097.654999999999</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80761.9859478088</v>
+        <v>74766.03049999999</v>
       </c>
       <c r="B21" t="n">
         <v>65000</v>
@@ -1042,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>1659.811947808805</v>
+        <v>-4353.939000000006</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>82236.71857656092</v>
+        <v>72263.8475</v>
       </c>
       <c r="B22" t="n">
         <v>65000</v>
@@ -1071,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>4819.616576560918</v>
+        <v>-4925.304999999993</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>60893.79318067842</v>
+        <v>68895.26699999999</v>
       </c>
       <c r="B23" t="n">
         <v>65000</v>
@@ -1100,7 +1100,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>-13851.99381932158</v>
+        <v>-5511.466000000008</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>41527.12359352758</v>
+        <v>67476.7245</v>
       </c>
       <c r="B24" t="n">
         <v>65000</v>
@@ -1129,7 +1129,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>-30212.53590647242</v>
+        <v>-4025.551000000007</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>69812.7623244882</v>
+        <v>14561.85</v>
       </c>
       <c r="B25" t="n">
         <v>65000</v>
@@ -1158,7 +1158,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>-1136.286175511807</v>
+        <v>-56041.3</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,7 +470,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69920.2865</v>
+        <v>61523.2865</v>
       </c>
       <c r="B2" t="n">
         <v>60000</v>
@@ -491,7 +491,7 @@
         <v>15000</v>
       </c>
       <c r="H2" t="n">
-        <v>4365.573000000004</v>
+        <v>-4031.426999999996</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66915.6565</v>
+        <v>58840.6565</v>
       </c>
       <c r="B3" t="n">
         <v>55000</v>
@@ -520,7 +520,7 @@
         <v>10000</v>
       </c>
       <c r="H3" t="n">
-        <v>6556.312999999995</v>
+        <v>-1518.687000000005</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64226.2495</v>
+        <v>56936.2495</v>
       </c>
       <c r="B4" t="n">
         <v>50000</v>
@@ -549,7 +549,7 @@
         <v>5000</v>
       </c>
       <c r="H4" t="n">
-        <v>8914.498999999996</v>
+        <v>1624.498999999996</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61875.048</v>
+        <v>55561.048</v>
       </c>
       <c r="B5" t="n">
         <v>45000</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>11575.09600000001</v>
+        <v>5261.096000000005</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60259.8485</v>
+        <v>50688.8485</v>
       </c>
       <c r="B6" t="n">
         <v>45000</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>9966.697</v>
+        <v>395.6970000000001</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>58139.24</v>
+        <v>55775.24</v>
       </c>
       <c r="B7" t="n">
         <v>22500</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>30314.48</v>
+        <v>27950.48</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56572.5245</v>
+        <v>55252.5245</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>27874.049</v>
+        <v>26554.049</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60752.6295</v>
+        <v>59318.6295</v>
       </c>
       <c r="B9" t="n">
         <v>22500</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>31620.25900000001</v>
+        <v>30186.25900000001</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64931.071</v>
+        <v>67060.071</v>
       </c>
       <c r="B10" t="n">
         <v>22500</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34445.14200000001</v>
+        <v>36574.14199999999</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>70147.9385</v>
+        <v>71615.9385</v>
       </c>
       <c r="B11" t="n">
         <v>22500</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34485.87700000001</v>
+        <v>35953.87700000001</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>69263.08900000001</v>
+        <v>72137.08900000001</v>
       </c>
       <c r="B12" t="n">
         <v>45000</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8763.178000000007</v>
+        <v>11637.17800000001</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>72050.28200000001</v>
+        <v>72231.28200000001</v>
       </c>
       <c r="B13" t="n">
         <v>45000</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11071.56400000001</v>
+        <v>11252.56400000001</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68358.14999999999</v>
+        <v>74888.14999999999</v>
       </c>
       <c r="B14" t="n">
         <v>55000</v>
@@ -839,7 +839,7 @@
         <v>10000</v>
       </c>
       <c r="H14" t="n">
-        <v>-2591.700000000004</v>
+        <v>3938.299999999996</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>72446.51549999999</v>
+        <v>78039.51549999999</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>-8665.969000000005</v>
+        <v>-3072.969000000005</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69319.5355</v>
+        <v>79549.5355</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>-12381.929</v>
+        <v>-2151.929000000004</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>69034.26949999999</v>
+        <v>80463.26949999999</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>-12485.46100000001</v>
+        <v>-1056.46100000001</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68570.463</v>
+        <v>78579.463</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -955,7 +955,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>-13004.07399999999</v>
+        <v>-2995.073999999993</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>72815.8455</v>
+        <v>82109.8455</v>
       </c>
       <c r="B19" t="n">
         <v>65000</v>
@@ -984,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>-8372.309000000008</v>
+        <v>921.6909999999916</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>75500.6725</v>
+        <v>78821.6725</v>
       </c>
       <c r="B20" t="n">
         <v>65000</v>
@@ -1013,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>-5097.654999999999</v>
+        <v>-1776.654999999999</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74766.03049999999</v>
+        <v>78736.03049999999</v>
       </c>
       <c r="B21" t="n">
         <v>65000</v>
@@ -1042,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>-4353.939000000006</v>
+        <v>-383.9390000000058</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>72263.8475</v>
+        <v>76775.8475</v>
       </c>
       <c r="B22" t="n">
         <v>65000</v>
@@ -1071,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>-4925.304999999993</v>
+        <v>-413.304999999993</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>68895.26699999999</v>
+        <v>33155.267</v>
       </c>
       <c r="B23" t="n">
         <v>65000</v>
@@ -1100,7 +1100,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>-5511.466000000008</v>
+        <v>-41251.466</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,10 +470,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61523.2865</v>
+        <v>66539.3665</v>
       </c>
       <c r="B2" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="C2" t="n">
         <v>25000</v>
@@ -488,10 +488,10 @@
         <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-4031.426999999996</v>
+        <v>16022.73300000001</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,10 +499,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>58840.6565</v>
+        <v>63920.688</v>
       </c>
       <c r="B3" t="n">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="C3" t="n">
         <v>25000</v>
@@ -517,10 +517,10 @@
         <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1518.687000000005</v>
+        <v>13533.376</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,28 +528,28 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56936.2495</v>
+        <v>60272.176</v>
       </c>
       <c r="B4" t="n">
-        <v>50000</v>
+        <v>22500</v>
       </c>
       <c r="C4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E4" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1624.498999999996</v>
+        <v>32432.352</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,28 +557,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55561.048</v>
+        <v>58962.181</v>
       </c>
       <c r="B5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="C5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E5" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5261.096000000005</v>
+        <v>31155.36199999999</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,13 +586,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50688.8485</v>
+        <v>59797.17</v>
       </c>
       <c r="B6" t="n">
-        <v>45000</v>
+        <v>32500</v>
       </c>
       <c r="C6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D6" t="n">
         <v>20000</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>395.6970000000001</v>
+        <v>21958.34</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55775.24</v>
+        <v>65642.2855</v>
       </c>
       <c r="B7" t="n">
         <v>22500</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27950.48</v>
+        <v>37719.571</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>55252.5245</v>
+        <v>64173.893</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>26554.049</v>
+        <v>35798.78599999999</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59318.6295</v>
+        <v>73269.57249999999</v>
       </c>
       <c r="B9" t="n">
         <v>22500</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>30186.25900000001</v>
+        <v>43555.14499999999</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,28 +702,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67060.071</v>
+        <v>86257.982</v>
       </c>
       <c r="B10" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
       <c r="C10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H10" t="n">
-        <v>36574.14199999999</v>
+        <v>12790.96400000001</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,28 +731,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71615.9385</v>
+        <v>90482.3835</v>
       </c>
       <c r="B11" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
       <c r="C11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E11" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F11" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>35953.87700000001</v>
+        <v>11841.76699999999</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>72137.08900000001</v>
+        <v>94548.98</v>
       </c>
       <c r="B12" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="C12" t="n">
         <v>25000</v>
@@ -778,10 +778,10 @@
         <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>11637.17800000001</v>
+        <v>13785.95999999999</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>72231.28200000001</v>
+        <v>96248.9605</v>
       </c>
       <c r="B13" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="C13" t="n">
         <v>25000</v>
@@ -807,10 +807,10 @@
         <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>11252.56400000001</v>
+        <v>16176.921</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>74888.14999999999</v>
+        <v>93999.3325</v>
       </c>
       <c r="B14" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="C14" t="n">
         <v>25000</v>
@@ -836,10 +836,10 @@
         <v>10000</v>
       </c>
       <c r="G14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>3938.299999999996</v>
+        <v>13739.66500000001</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>78039.51549999999</v>
+        <v>97613.25599999999</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>-3072.969000000005</v>
+        <v>16797.51199999999</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>79549.5355</v>
+        <v>103207.6725</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>-2151.929000000004</v>
+        <v>22252.345</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80463.26949999999</v>
+        <v>53761.9265</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>-1056.46100000001</v>
+        <v>-27352.147</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>78579.463</v>
+        <v>86334.611</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -955,7 +955,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>-2995.073999999993</v>
+        <v>4950.222000000009</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>82109.8455</v>
+        <v>82324.363</v>
       </c>
       <c r="B19" t="n">
         <v>65000</v>
@@ -984,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>921.6909999999916</v>
+        <v>1391.725999999995</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>78821.6725</v>
+        <v>81334.0935</v>
       </c>
       <c r="B20" t="n">
         <v>65000</v>
@@ -1013,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>-1776.654999999999</v>
+        <v>1297.187000000005</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>78736.03049999999</v>
+        <v>78578.4975</v>
       </c>
       <c r="B21" t="n">
         <v>65000</v>
@@ -1042,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>-383.9390000000058</v>
+        <v>247.9949999999953</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>76775.8475</v>
+        <v>77749.1885</v>
       </c>
       <c r="B22" t="n">
         <v>65000</v>
@@ -1071,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>-413.304999999993</v>
+        <v>978.3770000000077</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>33155.267</v>
+        <v>74837.92449999999</v>
       </c>
       <c r="B23" t="n">
         <v>65000</v>
@@ -1100,7 +1100,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>-41251.466</v>
+        <v>525.8489999999947</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67476.7245</v>
+        <v>54075.2015</v>
       </c>
       <c r="B24" t="n">
         <v>65000</v>
@@ -1129,7 +1129,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>-4025.551000000007</v>
+        <v>-17698.59699999999</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1158,7 +1158,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>-56041.3</v>
+        <v>-55980.281</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,10 +470,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66539.3665</v>
+        <v>85322.09149999999</v>
       </c>
       <c r="B2" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="C2" t="n">
         <v>25000</v>
@@ -488,10 +488,10 @@
         <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H2" t="n">
-        <v>16022.73300000001</v>
+        <v>14782.18299999999</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,10 +499,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63920.688</v>
+        <v>66643.49400000001</v>
       </c>
       <c r="B3" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="C3" t="n">
         <v>25000</v>
@@ -517,10 +517,10 @@
         <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H3" t="n">
-        <v>13533.376</v>
+        <v>6299.988000000005</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,28 +528,28 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>60272.176</v>
+        <v>63850.3595</v>
       </c>
       <c r="B4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="C4" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E4" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F4" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>32432.352</v>
+        <v>13599.719</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,28 +557,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58962.181</v>
+        <v>61979.8705</v>
       </c>
       <c r="B5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="C5" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E5" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F5" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>31155.36199999999</v>
+        <v>11785.74099999999</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59797.17</v>
+        <v>62565.603</v>
       </c>
       <c r="B6" t="n">
         <v>32500</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>21958.34</v>
+        <v>24922.20600000001</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65642.2855</v>
+        <v>74491.1695</v>
       </c>
       <c r="B7" t="n">
         <v>22500</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>37719.571</v>
+        <v>46802.33900000001</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64173.893</v>
+        <v>60588.8635</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>35798.78599999999</v>
+        <v>32460.727</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73269.57249999999</v>
+        <v>67205.92599999999</v>
       </c>
       <c r="B9" t="n">
         <v>22500</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>43555.14499999999</v>
+        <v>38156.85199999999</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,28 +702,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>86257.982</v>
+        <v>75170.359</v>
       </c>
       <c r="B10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
       <c r="C10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E10" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>12790.96400000001</v>
+        <v>44860.71799999999</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>90482.3835</v>
+        <v>82295.1295</v>
       </c>
       <c r="B11" t="n">
-        <v>65000</v>
+        <v>32500</v>
       </c>
       <c r="C11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
@@ -749,10 +749,10 @@
         <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11841.76699999999</v>
+        <v>36817.25899999999</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>94548.98</v>
+        <v>83060.50599999999</v>
       </c>
       <c r="B12" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="C12" t="n">
         <v>25000</v>
@@ -778,10 +778,10 @@
         <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H12" t="n">
-        <v>13785.95999999999</v>
+        <v>13181.01199999999</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96248.9605</v>
+        <v>79680.716</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -810,7 +810,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>16176.921</v>
+        <v>-653.5679999999993</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>93999.3325</v>
+        <v>87679.5435</v>
       </c>
       <c r="B14" t="n">
         <v>65000</v>
@@ -839,7 +839,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>13739.66500000001</v>
+        <v>7141.087</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>97613.25599999999</v>
+        <v>85245.04149999999</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>16797.51199999999</v>
+        <v>4771.082999999984</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103207.6725</v>
+        <v>84102.6715</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>22252.345</v>
+        <v>3643.342999999993</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>53761.9265</v>
+        <v>82366.4325</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>-27352.147</v>
+        <v>1632.864999999991</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>86334.611</v>
+        <v>78912.772</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -955,7 +955,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>4950.222000000009</v>
+        <v>-2086.456000000006</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>82324.363</v>
+        <v>77523.92999999999</v>
       </c>
       <c r="B19" t="n">
         <v>65000</v>
@@ -984,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>1391.725999999995</v>
+        <v>-3163.140000000007</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>81334.0935</v>
+        <v>79823.067</v>
       </c>
       <c r="B20" t="n">
         <v>65000</v>
@@ -1013,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>1297.187000000005</v>
+        <v>-495.8660000000091</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>78578.4975</v>
+        <v>77799.3585</v>
       </c>
       <c r="B21" t="n">
         <v>65000</v>
@@ -1042,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>247.9949999999953</v>
+        <v>-635.2829999999958</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>77749.1885</v>
+        <v>77147.185</v>
       </c>
       <c r="B22" t="n">
         <v>65000</v>
@@ -1071,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>978.3770000000077</v>
+        <v>537.3699999999953</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>74837.92449999999</v>
+        <v>75950.549</v>
       </c>
       <c r="B23" t="n">
         <v>65000</v>
@@ -1100,7 +1100,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>525.8489999999947</v>
+        <v>1847.097999999998</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>54075.2015</v>
+        <v>73885.5585</v>
       </c>
       <c r="B24" t="n">
         <v>65000</v>
@@ -1129,7 +1129,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>-17698.59699999999</v>
+        <v>2595.116999999998</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14561.85</v>
+        <v>71567.1335</v>
       </c>
       <c r="B25" t="n">
         <v>65000</v>
@@ -1158,7 +1158,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>-55980.281</v>
+        <v>1349.266999999993</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,28 +470,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85322.09149999999</v>
+        <v>60091.7405</v>
       </c>
       <c r="B2" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
       <c r="C2" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14782.18299999999</v>
+        <v>31959.481</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,28 +499,28 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66643.49400000001</v>
+        <v>57606.156</v>
       </c>
       <c r="B3" t="n">
-        <v>55000</v>
+        <v>22500</v>
       </c>
       <c r="C3" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E3" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6299.988000000005</v>
+        <v>29627.31200000001</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,28 +528,28 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>63850.3595</v>
+        <v>55826.2625</v>
       </c>
       <c r="B4" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="C4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E4" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>13599.719</v>
+        <v>27894.52499999999</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,28 +557,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61979.8705</v>
+        <v>54920.7065</v>
       </c>
       <c r="B5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="C5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E5" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>11785.74099999999</v>
+        <v>27069.413</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,28 +586,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62565.603</v>
+        <v>57738.2435</v>
       </c>
       <c r="B6" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="C6" t="n">
         <v>12500</v>
       </c>
       <c r="D6" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E6" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>24922.20600000001</v>
+        <v>29794.48699999999</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74491.1695</v>
+        <v>62280.3545</v>
       </c>
       <c r="B7" t="n">
         <v>22500</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>46802.33900000001</v>
+        <v>34258.709</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60588.8635</v>
+        <v>63002.004</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>32460.727</v>
+        <v>33933.008</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67205.92599999999</v>
+        <v>74118.9295</v>
       </c>
       <c r="B9" t="n">
         <v>22500</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>38156.85199999999</v>
+        <v>44579.859</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,28 +702,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75170.359</v>
+        <v>89684.016</v>
       </c>
       <c r="B10" t="n">
-        <v>22500</v>
+        <v>57000</v>
       </c>
       <c r="C10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H10" t="n">
-        <v>44860.71799999999</v>
+        <v>23915.03200000001</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>82295.1295</v>
+        <v>94141.26149999999</v>
       </c>
       <c r="B11" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
       <c r="C11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
@@ -749,10 +749,10 @@
         <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>36817.25899999999</v>
+        <v>14853.52299999999</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>83060.50599999999</v>
+        <v>95535.67999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="C12" t="n">
         <v>25000</v>
@@ -778,10 +778,10 @@
         <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>13181.01199999999</v>
+        <v>14332.35999999999</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>79680.716</v>
+        <v>96843.9975</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -810,7 +810,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>-653.5679999999993</v>
+        <v>15590.995</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>87679.5435</v>
+        <v>96558.0425</v>
       </c>
       <c r="B14" t="n">
         <v>65000</v>
@@ -839,7 +839,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>7141.087</v>
+        <v>15364.08499999999</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>85245.04149999999</v>
+        <v>100667.975</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>4771.082999999984</v>
+        <v>19360.95000000001</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>84102.6715</v>
+        <v>101388.0945</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>3643.342999999993</v>
+        <v>20134.18900000001</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>82366.4325</v>
+        <v>80754.929</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>1632.864999999991</v>
+        <v>87.85800000000745</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>78912.772</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -953,9 +953,6 @@
       </c>
       <c r="G18" t="n">
         <v>20000</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-2086.456000000006</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -984,7 +981,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>-3163.140000000007</v>
+        <v>-3597.647500000006</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -1013,7 +1010,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>-495.8660000000091</v>
+        <v>-454.8110000000015</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1042,7 +1039,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>-635.2829999999958</v>
+        <v>-1183.855499999998</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1071,7 +1068,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>537.3699999999953</v>
+        <v>138.1984999999986</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1100,7 +1097,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>1847.097999999998</v>
+        <v>1302.546999999991</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1129,7 +1126,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>2595.116999999998</v>
+        <v>2128.741999999998</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1158,7 +1155,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>1349.266999999993</v>
+        <v>561.2035000000033</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,28 +470,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60091.7405</v>
+        <v>67741.01150000001</v>
       </c>
       <c r="B2" t="n">
-        <v>22500</v>
+        <v>55000</v>
       </c>
       <c r="C2" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E2" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H2" t="n">
-        <v>31959.481</v>
+        <v>7324.023000000008</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>57606.156</v>
+        <v>64760.858</v>
       </c>
       <c r="B3" t="n">
         <v>22500</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>29627.31200000001</v>
+        <v>37050.716</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55826.2625</v>
+        <v>62101.3</v>
       </c>
       <c r="B4" t="n">
         <v>22500</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27894.52499999999</v>
+        <v>34469.60000000001</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54920.7065</v>
+        <v>61724.802</v>
       </c>
       <c r="B5" t="n">
         <v>22500</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>27069.413</v>
+        <v>34175.60400000001</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>57738.2435</v>
+        <v>63342.0075</v>
       </c>
       <c r="B6" t="n">
         <v>22500</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>29794.48699999999</v>
+        <v>35757.015</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62280.3545</v>
+        <v>67452.89449999999</v>
       </c>
       <c r="B7" t="n">
         <v>22500</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>34258.709</v>
+        <v>39572.789</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63002.004</v>
+        <v>66444.84849999999</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>33933.008</v>
+        <v>37531.69699999999</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74118.9295</v>
+        <v>77477.15949999999</v>
       </c>
       <c r="B9" t="n">
         <v>22500</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44579.859</v>
+        <v>47769.31899999999</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89684.016</v>
+        <v>93062.8</v>
       </c>
       <c r="B10" t="n">
-        <v>57000</v>
+        <v>55000</v>
       </c>
       <c r="C10" t="n">
         <v>25000</v>
@@ -720,10 +720,10 @@
         <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="H10" t="n">
-        <v>23915.03200000001</v>
+        <v>28573.60000000001</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94141.26149999999</v>
+        <v>97938.8115</v>
       </c>
       <c r="B11" t="n">
         <v>65000</v>
@@ -752,7 +752,7 @@
         <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>14853.52299999999</v>
+        <v>18620.62299999999</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>95535.67999999999</v>
+        <v>100816.808</v>
       </c>
       <c r="B12" t="n">
         <v>65000</v>
@@ -781,7 +781,7 @@
         <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>14332.35999999999</v>
+        <v>20476.61600000001</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96843.9975</v>
+        <v>99591.12850000001</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -810,7 +810,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>15590.995</v>
+        <v>19001.25700000001</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96558.0425</v>
+        <v>103078.6315</v>
       </c>
       <c r="B14" t="n">
         <v>65000</v>
@@ -839,7 +839,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>15364.08499999999</v>
+        <v>22719.26300000001</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100667.975</v>
+        <v>103456.56</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>19360.95000000001</v>
+        <v>22945.12</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101388.0945</v>
+        <v>106139.5625</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>20134.18900000001</v>
+        <v>25473.125</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80754.929</v>
+        <v>98840.583</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>87.85800000000745</v>
+        <v>17715.166</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>94650.12700000001</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -953,6 +953,9 @@
       </c>
       <c r="G18" t="n">
         <v>20000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13243.25400000002</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -960,7 +963,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>77523.92999999999</v>
+        <v>91921.8355</v>
       </c>
       <c r="B19" t="n">
         <v>65000</v>
@@ -981,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>-3597.647500000006</v>
+        <v>10758.671</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -989,7 +992,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>79823.067</v>
+        <v>91677.2825</v>
       </c>
       <c r="B20" t="n">
         <v>65000</v>
@@ -1010,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>-454.8110000000015</v>
+        <v>11017.565</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1018,7 +1021,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>77799.3585</v>
+        <v>78811.4135</v>
       </c>
       <c r="B21" t="n">
         <v>65000</v>
@@ -1039,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>-1183.855499999998</v>
+        <v>46.8269999999975</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1047,7 +1050,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>77147.185</v>
+        <v>80527.792</v>
       </c>
       <c r="B22" t="n">
         <v>65000</v>
@@ -1068,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>138.1984999999986</v>
+        <v>4021.584000000003</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1076,7 +1079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>75950.549</v>
+        <v>59160.206</v>
       </c>
       <c r="B23" t="n">
         <v>65000</v>
@@ -1097,7 +1100,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>1302.546999999991</v>
+        <v>-13942.588</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>73885.5585</v>
+        <v>65087.887</v>
       </c>
       <c r="B24" t="n">
         <v>65000</v>
@@ -1126,7 +1129,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>2128.741999999998</v>
+        <v>-6220.225999999995</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1155,7 +1158,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>561.2035000000033</v>
+        <v>855.6514999999927</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,13 +470,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67741.01150000001</v>
+        <v>69362.51534653465</v>
       </c>
       <c r="B2" t="n">
-        <v>55000</v>
+        <v>42500</v>
       </c>
       <c r="C2" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D2" t="n">
         <v>20000</v>
@@ -491,7 +491,7 @@
         <v>10000</v>
       </c>
       <c r="H2" t="n">
-        <v>7324.023000000008</v>
+        <v>21533.0306930693</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64760.858</v>
+        <v>64062.29356435643</v>
       </c>
       <c r="B3" t="n">
         <v>22500</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>37050.716</v>
+        <v>36302.58712871286</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62101.3</v>
+        <v>65658.11732673267</v>
       </c>
       <c r="B4" t="n">
         <v>22500</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>34469.60000000001</v>
+        <v>37994.23465346534</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61724.802</v>
+        <v>61655.28663366337</v>
       </c>
       <c r="B5" t="n">
         <v>22500</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>34175.60400000001</v>
+        <v>34042.57326732673</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63342.0075</v>
+        <v>62069.44108910891</v>
       </c>
       <c r="B6" t="n">
         <v>22500</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>35757.015</v>
+        <v>34462.88217821782</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67452.89449999999</v>
+        <v>63867.63465346534</v>
       </c>
       <c r="B7" t="n">
         <v>22500</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39572.789</v>
+        <v>36067.26930693068</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66444.84849999999</v>
+        <v>63408.89306930693</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>37531.69699999999</v>
+        <v>34529.78613861385</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77477.15949999999</v>
+        <v>74626.34306930692</v>
       </c>
       <c r="B9" t="n">
         <v>22500</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>47769.31899999999</v>
+        <v>44909.68613861385</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93062.8</v>
+        <v>93676.24554455446</v>
       </c>
       <c r="B10" t="n">
         <v>55000</v>
@@ -723,7 +723,7 @@
         <v>10000</v>
       </c>
       <c r="H10" t="n">
-        <v>28573.60000000001</v>
+        <v>29732.49108910892</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>97938.8115</v>
+        <v>105712.697</v>
       </c>
       <c r="B11" t="n">
         <v>65000</v>
@@ -752,7 +752,7 @@
         <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>18620.62299999999</v>
+        <v>27039.394</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100816.808</v>
+        <v>100773.909</v>
       </c>
       <c r="B12" t="n">
         <v>65000</v>
@@ -781,7 +781,7 @@
         <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>20476.61600000001</v>
+        <v>20177.818</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99591.12850000001</v>
+        <v>104781.504255</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -810,7 +810,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>19001.25700000001</v>
+        <v>24190.00851000001</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103078.6315</v>
+        <v>103107.418145</v>
       </c>
       <c r="B14" t="n">
         <v>65000</v>
@@ -839,7 +839,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>22719.26300000001</v>
+        <v>22154.83629000001</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>103456.56</v>
+        <v>109305.36965</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +868,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>22945.12</v>
+        <v>28337.73929999999</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106139.5625</v>
+        <v>105855.462415</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +897,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>25473.125</v>
+        <v>24732.92483</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>98840.583</v>
+        <v>63205.732835</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +926,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>17715.166</v>
+        <v>-18479.53432999999</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>94650.12700000001</v>
+        <v>64148.58444999999</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -955,7 +955,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>13243.25400000002</v>
+        <v>-17754.83110000001</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>91921.8355</v>
+        <v>64570.478235</v>
       </c>
       <c r="B19" t="n">
         <v>65000</v>
@@ -984,7 +984,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>10758.671</v>
+        <v>-16993.04353</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>91677.2825</v>
+        <v>63680.90993</v>
       </c>
       <c r="B20" t="n">
         <v>65000</v>
@@ -1013,7 +1013,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>11017.565</v>
+        <v>-17558.18014</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>78811.4135</v>
+        <v>63024.928185</v>
       </c>
       <c r="B21" t="n">
         <v>65000</v>
@@ -1042,7 +1042,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>46.8269999999975</v>
+        <v>-16624.14363000001</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80527.792</v>
+        <v>63689.698075</v>
       </c>
       <c r="B22" t="n">
         <v>65000</v>
@@ -1071,7 +1071,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>4021.584000000003</v>
+        <v>-13769.60385</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>59160.206</v>
+        <v>62512.857865</v>
       </c>
       <c r="B23" t="n">
         <v>65000</v>
@@ -1100,7 +1100,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>-13942.588</v>
+        <v>-12413.28427</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>65087.887</v>
+        <v>59950.801475</v>
       </c>
       <c r="B24" t="n">
         <v>65000</v>
@@ -1129,7 +1129,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>-6220.225999999995</v>
+        <v>-11876.39705</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>71567.1335</v>
+        <v>23066.7285</v>
       </c>
       <c r="B25" t="n">
         <v>65000</v>
@@ -1158,7 +1158,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>855.6514999999927</v>
+        <v>-47946.868565</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -470,13 +470,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69362.51534653465</v>
+        <v>10954.9285</v>
       </c>
       <c r="B2" t="n">
-        <v>42500</v>
+        <v>45000</v>
       </c>
       <c r="C2" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D2" t="n">
         <v>20000</v>
@@ -488,10 +488,10 @@
         <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>21533.0306930693</v>
+        <v>-34045.0715</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64062.29356435643</v>
+        <v>10655.503</v>
       </c>
       <c r="B3" t="n">
         <v>22500</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>36302.58712871286</v>
+        <v>-11844.497</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65658.11732673267</v>
+        <v>10438.7358</v>
       </c>
       <c r="B4" t="n">
         <v>22500</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>37994.23465346534</v>
+        <v>-12061.2642</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61655.28663366337</v>
+        <v>10312.5587</v>
       </c>
       <c r="B5" t="n">
         <v>22500</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>34042.57326732673</v>
+        <v>-12187.4413</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62069.44108910891</v>
+        <v>10304.2951</v>
       </c>
       <c r="B6" t="n">
         <v>22500</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34462.88217821782</v>
+        <v>-12195.7049</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63867.63465346534</v>
+        <v>11314.5128</v>
       </c>
       <c r="B7" t="n">
         <v>22500</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36067.26930693068</v>
+        <v>-11185.4872</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63408.89306930693</v>
+        <v>10859.7492</v>
       </c>
       <c r="B8" t="n">
         <v>22500</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>34529.78613861385</v>
+        <v>-11640.2508</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74626.34306930692</v>
+        <v>11618.8733</v>
       </c>
       <c r="B9" t="n">
         <v>22500</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44909.68613861385</v>
+        <v>-10881.1267</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93676.24554455446</v>
+        <v>14330.7389</v>
       </c>
       <c r="B10" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="C10" t="n">
         <v>25000</v>
@@ -720,10 +720,10 @@
         <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H10" t="n">
-        <v>29732.49108910892</v>
+        <v>-50669.2611</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105712.697</v>
+        <v>10814.5478</v>
       </c>
       <c r="B11" t="n">
         <v>65000</v>
@@ -752,7 +752,7 @@
         <v>20000</v>
       </c>
       <c r="H11" t="n">
-        <v>27039.394</v>
+        <v>-54185.4522</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100773.909</v>
+        <v>9422.255299999999</v>
       </c>
       <c r="B12" t="n">
         <v>65000</v>
@@ -781,7 +781,7 @@
         <v>20000</v>
       </c>
       <c r="H12" t="n">
-        <v>20177.818</v>
+        <v>-55577.7447</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104781.504255</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>65000</v>
@@ -808,9 +808,6 @@
       </c>
       <c r="G13" t="n">
         <v>20000</v>
-      </c>
-      <c r="H13" t="n">
-        <v>24190.00851000001</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -818,7 +815,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103107.418145</v>
+        <v>96816.04149999999</v>
       </c>
       <c r="B14" t="n">
         <v>65000</v>
@@ -839,7 +836,7 @@
         <v>20000</v>
       </c>
       <c r="H14" t="n">
-        <v>22154.83629000001</v>
+        <v>31816.04149999999</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -847,7 +844,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>109305.36965</v>
+        <v>101081.7905</v>
       </c>
       <c r="B15" t="n">
         <v>65000</v>
@@ -868,7 +865,7 @@
         <v>20000</v>
       </c>
       <c r="H15" t="n">
-        <v>28337.73929999999</v>
+        <v>36081.7905</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -876,7 +873,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105855.462415</v>
+        <v>101180.6495</v>
       </c>
       <c r="B16" t="n">
         <v>65000</v>
@@ -897,7 +894,7 @@
         <v>20000</v>
       </c>
       <c r="H16" t="n">
-        <v>24732.92483</v>
+        <v>36180.6495</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -905,7 +902,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>63205.732835</v>
+        <v>79528.2035</v>
       </c>
       <c r="B17" t="n">
         <v>65000</v>
@@ -926,7 +923,7 @@
         <v>20000</v>
       </c>
       <c r="H17" t="n">
-        <v>-18479.53432999999</v>
+        <v>14528.2035</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -934,7 +931,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>64148.58444999999</v>
+        <v>77704.311</v>
       </c>
       <c r="B18" t="n">
         <v>65000</v>
@@ -955,7 +952,7 @@
         <v>20000</v>
       </c>
       <c r="H18" t="n">
-        <v>-17754.83110000001</v>
+        <v>12704.311</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -963,7 +960,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>64570.478235</v>
+        <v>66661.442085</v>
       </c>
       <c r="B19" t="n">
         <v>65000</v>
@@ -984,7 +981,7 @@
         <v>20000</v>
       </c>
       <c r="H19" t="n">
-        <v>-16993.04353</v>
+        <v>1661.442085000002</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
@@ -992,7 +989,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>63680.90993</v>
+        <v>67736.5061</v>
       </c>
       <c r="B20" t="n">
         <v>65000</v>
@@ -1013,7 +1010,7 @@
         <v>20000</v>
       </c>
       <c r="H20" t="n">
-        <v>-17558.18014</v>
+        <v>2736.506099999999</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
@@ -1021,7 +1018,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>63024.928185</v>
+        <v>65913.62435500001</v>
       </c>
       <c r="B21" t="n">
         <v>65000</v>
@@ -1042,7 +1039,7 @@
         <v>20000</v>
       </c>
       <c r="H21" t="n">
-        <v>-16624.14363000001</v>
+        <v>913.6243550000072</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
@@ -1050,7 +1047,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>63689.698075</v>
+        <v>64058.817675</v>
       </c>
       <c r="B22" t="n">
         <v>65000</v>
@@ -1071,7 +1068,7 @@
         <v>20000</v>
       </c>
       <c r="H22" t="n">
-        <v>-13769.60385</v>
+        <v>-941.1823250000016</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
@@ -1079,7 +1076,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>62512.857865</v>
+        <v>63120.0028</v>
       </c>
       <c r="B23" t="n">
         <v>65000</v>
@@ -1100,7 +1097,7 @@
         <v>20000</v>
       </c>
       <c r="H23" t="n">
-        <v>-12413.28427</v>
+        <v>-1879.997199999998</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
@@ -1108,7 +1105,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>59950.801475</v>
+        <v>60502.067025</v>
       </c>
       <c r="B24" t="n">
         <v>65000</v>
@@ -1129,7 +1126,7 @@
         <v>20000</v>
       </c>
       <c r="H24" t="n">
-        <v>-11876.39705</v>
+        <v>-4497.932975000003</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
@@ -1158,7 +1155,7 @@
         <v>20000</v>
       </c>
       <c r="H25" t="n">
-        <v>-47946.868565</v>
+        <v>-41933.2715</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,42 +467,47 @@
           <t>HOUR</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>PEDC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10954.9285</v>
+        <v>49055.70767884596</v>
       </c>
       <c r="B2" t="n">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="C2" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-34045.0715</v>
+        <v>20000</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
+      <c r="J2" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10655.503</v>
+        <v>45913.44015241734</v>
       </c>
       <c r="B3" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="C3" t="n">
         <v>12500</v>
@@ -517,21 +522,21 @@
         <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-11844.497</v>
+        <v>10000</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
+      <c r="J3" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10438.7358</v>
+        <v>43785.45451533525</v>
       </c>
       <c r="B4" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="C4" t="n">
         <v>12500</v>
@@ -548,19 +553,19 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
-        <v>-12061.2642</v>
-      </c>
       <c r="I4" t="n">
         <v>3</v>
       </c>
+      <c r="J4" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10312.5587</v>
+        <v>41929.94255221684</v>
       </c>
       <c r="B5" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="C5" t="n">
         <v>12500</v>
@@ -577,19 +582,19 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>-12187.4413</v>
-      </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
+      <c r="J5" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10304.2951</v>
+        <v>42771.98937702928</v>
       </c>
       <c r="B6" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="C6" t="n">
         <v>12500</v>
@@ -606,19 +611,19 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>-12195.7049</v>
-      </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
+      <c r="J6" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11314.5128</v>
+        <v>43594.49335046268</v>
       </c>
       <c r="B7" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="C7" t="n">
         <v>12500</v>
@@ -635,19 +640,19 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>-11185.4872</v>
-      </c>
       <c r="I7" t="n">
         <v>6</v>
       </c>
+      <c r="J7" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10859.7492</v>
+        <v>42603.55084781715</v>
       </c>
       <c r="B8" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="C8" t="n">
         <v>12500</v>
@@ -664,19 +669,19 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
-        <v>-11640.2508</v>
-      </c>
       <c r="I8" t="n">
         <v>7</v>
       </c>
+      <c r="J8" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11618.8733</v>
+        <v>35409.32129739954</v>
       </c>
       <c r="B9" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="C9" t="n">
         <v>12500</v>
@@ -693,19 +698,19 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>-10881.1267</v>
-      </c>
       <c r="I9" t="n">
         <v>8</v>
       </c>
+      <c r="J9" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14330.7389</v>
+        <v>57208.2105</v>
       </c>
       <c r="B10" t="n">
-        <v>65000</v>
+        <v>5000</v>
       </c>
       <c r="C10" t="n">
         <v>25000</v>
@@ -721,20 +726,20 @@
       </c>
       <c r="G10" t="n">
         <v>20000</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-50669.2611</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
       </c>
+      <c r="J10" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10814.5478</v>
+        <v>59820.862</v>
       </c>
       <c r="B11" t="n">
-        <v>65000</v>
+        <v>5000</v>
       </c>
       <c r="C11" t="n">
         <v>25000</v>
@@ -750,20 +755,20 @@
       </c>
       <c r="G11" t="n">
         <v>20000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-54185.4522</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
       </c>
+      <c r="J11" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9422.255299999999</v>
+        <v>62649.0755</v>
       </c>
       <c r="B12" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C12" t="n">
         <v>25000</v>
@@ -779,20 +784,20 @@
       </c>
       <c r="G12" t="n">
         <v>20000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-55577.7447</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
       </c>
+      <c r="J12" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>63585.374</v>
       </c>
       <c r="B13" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C13" t="n">
         <v>25000</v>
@@ -812,13 +817,16 @@
       <c r="I13" t="n">
         <v>12</v>
       </c>
+      <c r="J13" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96816.04149999999</v>
+        <v>64148.74625</v>
       </c>
       <c r="B14" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C14" t="n">
         <v>25000</v>
@@ -834,20 +842,20 @@
       </c>
       <c r="G14" t="n">
         <v>20000</v>
-      </c>
-      <c r="H14" t="n">
-        <v>31816.04149999999</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
       </c>
+      <c r="J14" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>101081.7905</v>
+        <v>67428.30775000001</v>
       </c>
       <c r="B15" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C15" t="n">
         <v>25000</v>
@@ -863,20 +871,20 @@
       </c>
       <c r="G15" t="n">
         <v>20000</v>
-      </c>
-      <c r="H15" t="n">
-        <v>36081.7905</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
       </c>
+      <c r="J15" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101180.6495</v>
+        <v>36096.26075</v>
       </c>
       <c r="B16" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C16" t="n">
         <v>25000</v>
@@ -892,20 +900,20 @@
       </c>
       <c r="G16" t="n">
         <v>20000</v>
-      </c>
-      <c r="H16" t="n">
-        <v>36180.6495</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
       </c>
+      <c r="J16" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>79528.2035</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C17" t="n">
         <v>25000</v>
@@ -921,20 +929,20 @@
       </c>
       <c r="G17" t="n">
         <v>20000</v>
-      </c>
-      <c r="H17" t="n">
-        <v>14528.2035</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
       </c>
+      <c r="J17" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>77704.311</v>
+        <v>1768.269410000001</v>
       </c>
       <c r="B18" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C18" t="n">
         <v>25000</v>
@@ -950,20 +958,20 @@
       </c>
       <c r="G18" t="n">
         <v>20000</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12704.311</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
       </c>
+      <c r="J18" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>66661.442085</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C19" t="n">
         <v>25000</v>
@@ -979,20 +987,20 @@
       </c>
       <c r="G19" t="n">
         <v>20000</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1661.442085000002</v>
       </c>
       <c r="I19" t="n">
         <v>18</v>
       </c>
+      <c r="J19" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67736.5061</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C20" t="n">
         <v>25000</v>
@@ -1008,20 +1016,20 @@
       </c>
       <c r="G20" t="n">
         <v>20000</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2736.506099999999</v>
       </c>
       <c r="I20" t="n">
         <v>19</v>
       </c>
+      <c r="J20" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>65913.62435500001</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C21" t="n">
         <v>25000</v>
@@ -1037,20 +1045,20 @@
       </c>
       <c r="G21" t="n">
         <v>20000</v>
-      </c>
-      <c r="H21" t="n">
-        <v>913.6243550000072</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
       </c>
+      <c r="J21" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>64058.817675</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C22" t="n">
         <v>25000</v>
@@ -1066,20 +1074,20 @@
       </c>
       <c r="G22" t="n">
         <v>20000</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-941.1823250000016</v>
       </c>
       <c r="I22" t="n">
         <v>21</v>
       </c>
+      <c r="J22" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>63120.0028</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C23" t="n">
         <v>25000</v>
@@ -1095,20 +1103,20 @@
       </c>
       <c r="G23" t="n">
         <v>20000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-1879.997199999998</v>
       </c>
       <c r="I23" t="n">
         <v>22</v>
       </c>
+      <c r="J23" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>60502.067025</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>65000</v>
+        <v>10000</v>
       </c>
       <c r="C24" t="n">
         <v>25000</v>
@@ -1124,41 +1132,41 @@
       </c>
       <c r="G24" t="n">
         <v>20000</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-4497.932975000003</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
       </c>
+      <c r="J24" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23066.7285</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>65000</v>
+        <v>5000</v>
       </c>
       <c r="C25" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D25" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E25" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F25" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="n">
         <v>20000</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-41933.2715</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,10 +475,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49055.70767884596</v>
+        <v>38477.55292684464</v>
       </c>
       <c r="B2" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C2" t="n">
         <v>12500</v>
@@ -499,15 +499,15 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45913.44015241734</v>
+        <v>36620.40118456523</v>
       </c>
       <c r="B3" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>12500</v>
@@ -522,21 +522,21 @@
         <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43785.45451533525</v>
+        <v>35248.56030425699</v>
       </c>
       <c r="B4" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>12500</v>
@@ -557,15 +557,15 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41929.94255221684</v>
+        <v>34216.17080189522</v>
       </c>
       <c r="B5" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>12500</v>
@@ -586,15 +586,15 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42771.98937702928</v>
+        <v>34922.90443273044</v>
       </c>
       <c r="B6" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>12500</v>
@@ -615,15 +615,15 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43594.49335046268</v>
+        <v>35984.87301104541</v>
       </c>
       <c r="B7" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>12500</v>
@@ -644,15 +644,15 @@
         <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>42603.55084781715</v>
+        <v>37061.67659102493</v>
       </c>
       <c r="B8" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>12500</v>
@@ -673,15 +673,15 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35409.32129739954</v>
+        <v>41874.97220930031</v>
       </c>
       <c r="B9" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>12500</v>
@@ -702,27 +702,27 @@
         <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>57208.2105</v>
+        <v>47716.503</v>
       </c>
       <c r="B10" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E10" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="n">
         <v>20000</v>
@@ -731,27 +731,27 @@
         <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>59820.862</v>
+        <v>47786.911945</v>
       </c>
       <c r="B11" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D11" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E11" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G11" t="n">
         <v>20000</v>
@@ -760,27 +760,27 @@
         <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>62649.0755</v>
+        <v>47367.6765</v>
       </c>
       <c r="B12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E12" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="n">
         <v>20000</v>
@@ -789,27 +789,27 @@
         <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>63585.374</v>
+        <v>46397.346</v>
       </c>
       <c r="B13" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E13" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G13" t="n">
         <v>20000</v>
@@ -818,27 +818,27 @@
         <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>64148.74625</v>
+        <v>46850.4575</v>
       </c>
       <c r="B14" t="n">
         <v>10000</v>
       </c>
       <c r="C14" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E14" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G14" t="n">
         <v>20000</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67428.30775000001</v>
+        <v>48334.546</v>
       </c>
       <c r="B15" t="n">
         <v>10000</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>36096.26075</v>
+        <v>29855.791</v>
       </c>
       <c r="B16" t="n">
         <v>10000</v>
@@ -1145,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C25" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D25" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E25" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G25" t="n">
         <v>20000</v>
@@ -1166,7 +1166,7 @@
         <v>24</v>
       </c>
       <c r="J25" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -881,7 +881,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>29855.791</v>
+        <v>46171.791</v>
       </c>
       <c r="B16" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -910,7 +910,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>43473.5805</v>
       </c>
       <c r="B17" t="n">
         <v>10000</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1768.269410000001</v>
+        <v>38591.5135</v>
       </c>
       <c r="B18" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -939,7 +939,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38591.5135</v>
+        <v>41665.5135</v>
       </c>
       <c r="B18" t="n">
         <v>10000</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>39727.5055</v>
       </c>
       <c r="B19" t="n">
         <v>10000</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>39165.7675</v>
       </c>
       <c r="B20" t="n">
         <v>10000</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>37817.495</v>
       </c>
       <c r="B21" t="n">
         <v>10000</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>38010.227</v>
       </c>
       <c r="B22" t="n">
         <v>10000</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>38285.2065</v>
       </c>
       <c r="B23" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -475,10 +475,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38477.55292684464</v>
+        <v>28055.51662633527</v>
       </c>
       <c r="B2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>12500</v>
@@ -499,12 +499,12 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36620.40118456523</v>
+        <v>26905.70154390091</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35248.56030425699</v>
+        <v>25723.37458066656</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34216.17080189522</v>
+        <v>24845.72510195928</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34922.90443273044</v>
+        <v>24988.90498752365</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35984.87301104541</v>
+        <v>25835.11014617304</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37061.67659102493</v>
+        <v>26401.55040670632</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>41874.97220930031</v>
+        <v>28889.35044967622</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47716.503</v>
+        <v>33516.87245290272</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>47786.911945</v>
+        <v>29249.825</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>47367.6765</v>
+        <v>29168.172</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C12" t="n">
         <v>12500</v>
@@ -789,15 +789,15 @@
         <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>46397.346</v>
+        <v>30065.795</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C13" t="n">
         <v>12500</v>
@@ -818,12 +818,12 @@
         <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>46850.4575</v>
+        <v>30878.246</v>
       </c>
       <c r="B14" t="n">
         <v>10000</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>48334.546</v>
+        <v>32676.0655</v>
       </c>
       <c r="B15" t="n">
         <v>10000</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>46171.791</v>
+        <v>49763.3545</v>
       </c>
       <c r="B16" t="n">
         <v>10000</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43473.5805</v>
+        <v>28812.386</v>
       </c>
       <c r="B17" t="n">
         <v>10000</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41665.5135</v>
+        <v>96.81750000000102</v>
       </c>
       <c r="B18" t="n">
         <v>10000</v>
@@ -1090,7 +1090,7 @@
         <v>10000</v>
       </c>
       <c r="C23" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="D23" t="n">
         <v>20000</v>
@@ -1119,7 +1119,7 @@
         <v>10000</v>
       </c>
       <c r="C24" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="D24" t="n">
         <v>20000</v>
@@ -1148,7 +1148,7 @@
         <v>10000</v>
       </c>
       <c r="C25" t="n">
-        <v>25000</v>
+        <v>17500</v>
       </c>
       <c r="D25" t="n">
         <v>20000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -475,22 +475,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28055.51662633527</v>
+        <v>28173.812</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C2" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E2" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="n">
         <v>20000</v>
@@ -499,12 +499,12 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26905.70154390091</v>
+        <v>26623.281</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25723.37458066656</v>
+        <v>25579.9055</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24845.72510195928</v>
+        <v>24846.72</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24988.90498752365</v>
+        <v>26542.999</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25835.11014617304</v>
+        <v>27110.602</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>5000</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26401.55040670632</v>
+        <v>27082.616</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>5000</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28889.35044967622</v>
+        <v>28671.407</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>5000</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33516.87245290272</v>
+        <v>17524.5715</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>29168.172</v>
       </c>
       <c r="B12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>12500</v>
@@ -789,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -797,7 +797,7 @@
         <v>30065.795</v>
       </c>
       <c r="B13" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>12500</v>
@@ -818,7 +818,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>30878.246</v>
       </c>
       <c r="B14" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>12500</v>
@@ -847,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1090,7 +1090,7 @@
         <v>10000</v>
       </c>
       <c r="C23" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="D23" t="n">
         <v>20000</v>
@@ -1119,7 +1119,7 @@
         <v>10000</v>
       </c>
       <c r="C24" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="D24" t="n">
         <v>20000</v>
@@ -1148,16 +1148,16 @@
         <v>10000</v>
       </c>
       <c r="C25" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="D25" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E25" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F25" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="n">
         <v>20000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -707,7 +707,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17524.5715</v>
+        <v>33173.5715</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -736,7 +736,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29249.825</v>
+        <v>30257.0645</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>29168.172</v>
+        <v>31759.972</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30065.795</v>
+        <v>30912.793</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30878.246</v>
+        <v>30557.527</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>32676.0655</v>
+        <v>15011.931</v>
       </c>
       <c r="B15" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -475,13 +475,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28173.812</v>
+        <v>30928.199</v>
       </c>
       <c r="B2" t="n">
         <v>10000</v>
       </c>
       <c r="C2" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="D2" t="n">
         <v>20000</v>
@@ -504,36 +504,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26623.281</v>
+        <v>29619.8635</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C3" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="D3" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E3" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25579.9055</v>
+        <v>27793.1675</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24846.72</v>
+        <v>26218.02</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>5000</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26542.999</v>
+        <v>25305.1185</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>27110.602</v>
+        <v>25440.605</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>5000</v>
       </c>
       <c r="G7" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27082.616</v>
+        <v>25564.52277227723</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>5000</v>
       </c>
       <c r="G8" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28671.407</v>
+        <v>26075.5535</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>5000</v>
       </c>
       <c r="G9" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33173.5715</v>
+        <v>28306.4105</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30257.0645</v>
+        <v>26016.9995</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>5000</v>
       </c>
       <c r="G11" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>31759.972</v>
+        <v>24997.2015</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30912.793</v>
+        <v>24407.995</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>5000</v>
       </c>
       <c r="G13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30557.527</v>
+        <v>23983.6615</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>5000</v>
       </c>
       <c r="G14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -852,22 +852,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15011.931</v>
+        <v>25520.364</v>
       </c>
       <c r="B15" t="n">
         <v>10000</v>
       </c>
       <c r="C15" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D15" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E15" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G15" t="n">
         <v>20000</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>49763.3545</v>
+        <v>26075.793</v>
       </c>
       <c r="B16" t="n">
         <v>10000</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28812.386</v>
+        <v>25427.0925</v>
       </c>
       <c r="B17" t="n">
         <v>10000</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96.81750000000102</v>
+        <v>23201.19782374277</v>
       </c>
       <c r="B18" t="n">
         <v>10000</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>39727.5055</v>
+        <v>20688.49828448191</v>
       </c>
       <c r="B19" t="n">
         <v>10000</v>
@@ -1119,7 +1119,7 @@
         <v>10000</v>
       </c>
       <c r="C24" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="D24" t="n">
         <v>20000</v>
@@ -1148,7 +1148,7 @@
         <v>10000</v>
       </c>
       <c r="C25" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D25" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -997,7 +997,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>39165.7675</v>
+        <v>527.5012253700606</v>
       </c>
       <c r="B20" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -968,7 +968,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20688.49828448191</v>
+        <v>23765.49828448191</v>
       </c>
       <c r="B19" t="n">
         <v>10000</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>527.5012253700606</v>
+        <v>25886.50122537006</v>
       </c>
       <c r="B20" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -1026,7 +1026,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>37817.495</v>
+        <v>1520.09097147339</v>
       </c>
       <c r="B21" t="n">
         <v>10000</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>38010.227</v>
+        <v>68523.995</v>
       </c>
       <c r="B22" t="n">
         <v>10000</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>38285.2065</v>
+        <v>66852.495</v>
       </c>
       <c r="B23" t="n">
         <v>10000</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>33754.2325</v>
       </c>
       <c r="B24" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -1026,7 +1026,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1520.09097147339</v>
+        <v>21835.09097147339</v>
       </c>
       <c r="B21" t="n">
         <v>10000</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>68523.995</v>
+        <v>3245.15567101265</v>
       </c>
       <c r="B22" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -1026,7 +1026,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21835.09097147339</v>
+        <v>24833.09097147339</v>
       </c>
       <c r="B21" t="n">
         <v>10000</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3245.15567101265</v>
+        <v>26245.15567101265</v>
       </c>
       <c r="B22" t="n">
         <v>10000</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66852.495</v>
+        <v>29155.857</v>
       </c>
       <c r="B23" t="n">
         <v>10000</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>33754.2325</v>
+        <v>31722.2145</v>
       </c>
       <c r="B24" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -475,65 +475,65 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30928.199</v>
+        <v>29122.8805</v>
       </c>
       <c r="B2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="D2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29619.8635</v>
+        <v>27622.841</v>
       </c>
       <c r="B3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="D3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E3" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27793.1675</v>
+        <v>26768.443</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26218.02</v>
+        <v>25618.6665</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>5000</v>
       </c>
       <c r="G5" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25305.1185</v>
+        <v>21438.403</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25440.605</v>
+        <v>24782.776</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25564.52277227723</v>
+        <v>23402.9005</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26075.5535</v>
+        <v>23572.2015</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28306.4105</v>
+        <v>24529.095</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26016.9995</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>5000</v>
       </c>
       <c r="G11" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24997.2015</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24407.995</v>
+        <v>24422.4465</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>5000</v>
       </c>
       <c r="G13" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23983.6615</v>
+        <v>23655.5785</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>5000</v>
       </c>
       <c r="G14" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25520.364</v>
+        <v>25639.4725</v>
       </c>
       <c r="B15" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>12500</v>
@@ -870,91 +870,91 @@
         <v>5000</v>
       </c>
       <c r="G15" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26075.793</v>
+        <v>26289.412</v>
       </c>
       <c r="B16" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D16" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E16" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G16" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25427.0925</v>
+        <v>25686.222</v>
       </c>
       <c r="B17" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D17" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E17" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G17" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23201.19782374277</v>
+        <v>23393.0265</v>
       </c>
       <c r="B18" t="n">
         <v>10000</v>
       </c>
       <c r="C18" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D18" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E18" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G18" t="n">
         <v>20000</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>23765.49828448191</v>
+        <v>23851.9395</v>
       </c>
       <c r="B19" t="n">
         <v>10000</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25886.50122537006</v>
+        <v>26005.6845</v>
       </c>
       <c r="B20" t="n">
         <v>10000</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>24833.09097147339</v>
+        <v>25169.0295</v>
       </c>
       <c r="B21" t="n">
         <v>10000</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>26245.15567101265</v>
+        <v>26606.267</v>
       </c>
       <c r="B22" t="n">
         <v>10000</v>
@@ -1084,22 +1084,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>29155.857</v>
+        <v>29443.4905</v>
       </c>
       <c r="B23" t="n">
         <v>10000</v>
       </c>
       <c r="C23" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="D23" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E23" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="n">
         <v>20000</v>
@@ -1113,31 +1113,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>31722.2145</v>
+        <v>31741.664</v>
       </c>
       <c r="B24" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>22000</v>
+        <v>12500</v>
       </c>
       <c r="D24" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E24" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F24" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
       </c>
       <c r="J24" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>12500</v>
@@ -1160,13 +1160,13 @@
         <v>5000</v>
       </c>
       <c r="G25" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>
       </c>
       <c r="J25" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -736,7 +736,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>19451.102</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>18061.421</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24422.4465</v>
+        <v>18201.4465</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23655.5785</v>
+        <v>19619.5785</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25639.4725</v>
+        <v>20554.4725</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26289.412</v>
+        <v>21841.412</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25686.222</v>
+        <v>22296.222</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23393.0265</v>
+        <v>21879.0265</v>
       </c>
       <c r="B18" t="n">
         <v>10000</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>23851.9395</v>
+        <v>24784.9395</v>
       </c>
       <c r="B19" t="n">
         <v>10000</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>26005.6845</v>
+        <v>27200.6845</v>
       </c>
       <c r="B20" t="n">
         <v>10000</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25169.0295</v>
+        <v>26829.0295</v>
       </c>
       <c r="B21" t="n">
         <v>10000</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>26606.267</v>
+        <v>29178.267</v>
       </c>
       <c r="B22" t="n">
         <v>10000</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>29443.4905</v>
+        <v>31911.4905</v>
       </c>
       <c r="B23" t="n">
         <v>10000</v>

--- a/generation_mix.xlsx
+++ b/generation_mix.xlsx
@@ -475,7 +475,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29122.8805</v>
+        <v>31211.75948073177</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27622.841</v>
+        <v>31702.25591512984</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>26768.443</v>
+        <v>28159.03548588791</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25618.6665</v>
+        <v>26657.05367631955</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21438.403</v>
+        <v>27338.67628669798</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24782.776</v>
+        <v>33968.79982637541</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>5000</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23402.9005</v>
+        <v>31741.06297705363</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>5000</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23572.2015</v>
+        <v>30137.26817367624</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>5000</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24529.095</v>
+        <v>34968.8746394957</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19451.102</v>
+        <v>33833.86870104079</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>5000</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18061.421</v>
+        <v>33386.25158306386</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18201.4465</v>
+        <v>35205.51732439346</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>5000</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -841,7 +841,7 @@
         <v>5000</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
@@ -855,7 +855,7 @@
         <v>20554.4725</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C15" t="n">
         <v>12500</v>
@@ -870,13 +870,13 @@
         <v>5000</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16">
@@ -884,7 +884,7 @@
         <v>21841.412</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C16" t="n">
         <v>12500</v>
@@ -899,13 +899,13 @@
         <v>5000</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17">
@@ -913,7 +913,7 @@
         <v>22296.222</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C17" t="n">
         <v>12500</v>
@@ -928,13 +928,13 @@
         <v>5000</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18">
@@ -945,16 +945,16 @@
         <v>10000</v>
       </c>
       <c r="C18" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E18" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F18" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="n">
         <v>20000</v>
@@ -1090,16 +1090,16 @@
         <v>10000</v>
       </c>
       <c r="C23" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="D23" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E23" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G23" t="n">
         <v>20000</v>
@@ -1116,7 +1116,7 @@
         <v>31741.664</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C24" t="n">
         <v>12500</v>
@@ -1131,13 +1131,13 @@
         <v>5000</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I24" t="n">
         <v>23</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25">
@@ -1160,7 +1160,7 @@
         <v>5000</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>
